--- a/demo/导表/multimastfile_wuzhou_20190102_M6.xlsx
+++ b/demo/导表/multimastfile_wuzhou_20190102_M6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\华润工作资料\自动化报告\导表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOdoo12_community\myaddons\auto_word\demo\导表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03631F91-6809-4BB6-ABF5-E139228ECE8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BA47D-0BBE-4461-8306-64A659992927}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9810" yWindow="6675" windowWidth="27885" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="平均" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="124">
   <si>
     <t xml:space="preserve">工程 : </t>
   </si>
@@ -996,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AG95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:AG44"/>
+      <selection activeCell="P78" sqref="P78:P95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4007,6 +4007,97 @@
       </c>
       <c r="AG69" s="11">
         <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:33" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P78" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P79" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P80" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="16:16" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P81" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P82" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="16:16" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="16:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P84" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="16:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P85" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="16:16" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P86" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="16:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P87" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="16:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P88" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="16:16" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P89" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="16:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P90" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="16:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P91" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="16:16" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P92" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="16:16" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P93" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="16:16" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P94" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P95" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
